--- a/similarities/split_global/harmonic_similarity_timestamps_22.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,422 +484,448 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G', 'D']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:14.900000', '0:00:22.500000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.480839', '0:00:13.717755')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:00:08.180000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:01.920000', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.620000', '0:00:14.180000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:46.390000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=46.39</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min'], ['D/3', 'G', 'D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:15'), ('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:22.862248', '0:00:25.887570'), ('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=7.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=22.862248', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -908,286 +934,296 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.159000', '0:00:16.555000')]</t>
+          <t>('0:00:02.352018', '0:00:08.679455')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:07.380000')]</t>
+          <t>('0:00:25.620000', '0:00:33.760000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['C#:maj', 'F#:min', 'C:dim7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D'], ['A', 'D', 'A', 'B:min']]</t>
+          <t>['Eb', 'Ab:min', 'D:dim7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:00.100000', '0:01:05.020000'), ('0:00:18.260000', '0:00:25.900000')]</t>
+          <t>('0:00:13.820000', '0:00:17.960000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.562199', '0:00:24.735623'), ('0:01:10.583424', '0:01:20.010725')]</t>
+          <t>('0:00:06.330000', '0:00:09.900000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=60.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=13.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=70.583424']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=6.33</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:22.060000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb:7', 'Bb']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.870000', '0:00:25.840000')]</t>
+          <t>('0:00:00.780000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.440816', '0:00:20.824761')]</t>
+          <t>('0:00:06.880000', '0:00:15.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=16.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=13.440816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
